--- a/ingresos_autonomo_hog_2017_2020.xlsx
+++ b/ingresos_autonomo_hog_2017_2020.xlsx
@@ -1,21 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9937f86877348e7/Documentos/GitHub/ds_ingresos_ok/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_4C6EFDCE8F79A8D366075C52F362AAB012A7A4F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37EACC14-8C87-4F38-92E1-45D6341B6118}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3828" yWindow="948" windowWidth="12108" windowHeight="12012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>promedio_2017</t>
+  </si>
+  <si>
+    <t>promedio_2020</t>
+  </si>
+  <si>
+    <t>Región de Antofagasta</t>
+  </si>
+  <si>
+    <t>Región de Arica y Parinacota</t>
+  </si>
+  <si>
+    <t>Región de Atacama</t>
+  </si>
+  <si>
+    <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
+  </si>
+  <si>
+    <t>Región de Coquimbo</t>
+  </si>
+  <si>
+    <t>Región de La Araucanía</t>
+  </si>
+  <si>
+    <t>Región de Los Lagos</t>
+  </si>
+  <si>
+    <t>Región de Los Ríos</t>
+  </si>
+  <si>
+    <t>Región de Magallanes y de la Antártica Chilena</t>
+  </si>
+  <si>
+    <t>Región de Ñuble</t>
+  </si>
+  <si>
+    <t>Región de Tarapacá</t>
+  </si>
+  <si>
+    <t>Región de Valparaíso</t>
+  </si>
+  <si>
+    <t>Región del Biobío</t>
+  </si>
+  <si>
+    <t>Región del Libertador Gral. Bernardo O'Higgins</t>
+  </si>
+  <si>
+    <t>Región del Maule</t>
+  </si>
+  <si>
+    <t>Región Metropolitana de Santiago</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +131,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +217,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +269,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,87 +462,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>region</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>promedio_2017</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>promedio_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Región de Antofagasta</t>
-        </is>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1061215.983637747</v>
+        <v>1061215.9836377469</v>
       </c>
       <c r="C2">
-        <v>1033562.436090226</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
+        <v>1033562.4360902261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>715349.661444402</v>
+        <v>715349.66144440195</v>
       </c>
       <c r="C3">
-        <v>729823.8865217392</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Región de Atacama</t>
-        </is>
+        <v>729823.88652173919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>796479.9852282901</v>
+        <v>796479.98522829008</v>
       </c>
       <c r="C4">
-        <v>835951.0690082645</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Región de Aysén del Gral. Carlos Ibáñez del Campo</t>
-        </is>
+        <v>835951.06900826446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1006032.357741755</v>
       </c>
       <c r="C5">
-        <v>967604.197640118</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Región de Coquimbo</t>
-        </is>
+        <v>967604.19764011796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
         <v>591920.3965462104</v>
@@ -439,147 +539,125 @@
         <v>652691.2907749078</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Región de La Araucanía</t>
-        </is>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>578463.9250337252</v>
+        <v>578463.92503372522</v>
       </c>
       <c r="C7">
-        <v>563733.0460772105</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Región de Los Lagos</t>
-        </is>
+        <v>563733.04607721046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>688894.6922334781</v>
+        <v>688894.69223347807</v>
       </c>
       <c r="C8">
-        <v>675912.3858771198</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Región de Los Ríos</t>
-        </is>
+        <v>675912.38587711984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>665085.3300029386</v>
+        <v>665085.33000293863</v>
       </c>
       <c r="C9">
-        <v>657513.8696428571</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Región de Magallanes y de la Antártica Chilena</t>
-        </is>
+        <v>657513.86964285711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1135339.893333333</v>
+        <v>1135339.8933333331</v>
       </c>
       <c r="C10">
-        <v>1067639.944116067</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Región de Ñuble</t>
-        </is>
+        <v>1067639.9441160669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>540576.8558464224</v>
+        <v>540576.85584642238</v>
       </c>
       <c r="C11">
-        <v>536982.1814586995</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Región de Tarapacá</t>
-        </is>
+        <v>536982.18145869952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
       <c r="B12">
         <v>923362.9637901861</v>
       </c>
       <c r="C12">
-        <v>905914.3179932102</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Región de Valparaíso</t>
-        </is>
+        <v>905914.31799321016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>803874.0784671533</v>
+        <v>803874.07846715325</v>
       </c>
       <c r="C13">
-        <v>771366.6825396825</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Región del Biobío</t>
-        </is>
+        <v>771366.68253968249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>656046.7306674098</v>
+        <v>656046.73066740984</v>
       </c>
       <c r="C14">
-        <v>691263.4413610835</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Región del Libertador Gral. Bernardo O'Higgins</t>
-        </is>
+        <v>691263.44136108353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>639923.8100686499</v>
+        <v>639923.81006864994</v>
       </c>
       <c r="C15">
-        <v>707819.5779404818</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Región del Maule</t>
-        </is>
+        <v>707819.57794048183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>604758.5183744896</v>
+        <v>604758.51837448962</v>
       </c>
       <c r="C16">
-        <v>656891.5041455551</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Región Metropolitana de Santiago</t>
-        </is>
+        <v>656891.50414555508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1318362.940206948</v>
       </c>
       <c r="C17">
-        <v>1222056.475566331</v>
+        <v>1222056.4755663311</v>
       </c>
     </row>
   </sheetData>
